--- a/pacienti.xlsx
+++ b/pacienti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\licenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9A84DA-B089-45E9-B561-64702AB15000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2453BD1-0AA4-41EA-9243-DB7ED8EDF819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4D849E3-7913-4CD4-8C07-6167E15C4C69}"/>
   </bookViews>
@@ -556,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F199890-9420-4A3F-A446-2CF7CA95831D}">
   <dimension ref="A1:K1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K472" sqref="K472"/>
     </sheetView>
   </sheetViews>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
-        <f t="shared" ref="A158:A162" si="3">A157+0.1</f>
+        <f t="shared" ref="A158:A161" si="3">A157+0.1</f>
         <v>26.200000000000003</v>
       </c>
       <c r="B158" s="17">
@@ -3936,7 +3936,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
-        <f t="shared" ref="A165:A168" si="4">A164+0.1</f>
+        <f t="shared" ref="A165:A166" si="4">A164+0.1</f>
         <v>27.200000000000003</v>
       </c>
       <c r="B165" s="17">
